--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\RMI\Minnesota\MN_Model\InputData\trans\EVCRSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B75808-E7F7-4462-9A2E-0A82FA932429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{069008A6-555B-4751-A9E1-389F756FABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="570" windowWidth="20610" windowHeight="13515" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="14385" windowHeight="8385" activeTab="2" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>EVCRSbRIC EV Charger Revenue Share by Recipient ISIC Code</t>
   </si>
@@ -85,9 +85,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -221,6 +218,12 @@
   </si>
   <si>
     <t>Other business sector services</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -293,7 +296,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -612,11 +615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0DBC6-BBF6-4FFA-8935-A589DD9D6AFF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -680,26 +683,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5">
         <v>0.55000000000000004</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5">
         <v>0.3</v>
@@ -729,7 +732,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>0.05</v>
@@ -744,7 +747,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -759,76 +762,76 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6">
         <f>D3+D$6*D3/SUM(D$3:D$5)</f>
         <v>0.60526315789473684</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:B15" si="1">D4+D$6*D4/SUM(D$3:D$5)</f>
         <v>0.34210526315789469</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -841,17 +844,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="37" width="9.85546875" customWidth="1"/>
+    <col min="2" max="38" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -883,91 +888,94 @@
         <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -1014,12 +1022,12 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <f>'DOE Data and Calcs'!B14</f>
         <v>0.34210526315789469</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
@@ -1033,12 +1041,12 @@
         <v>0</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <f>'DOE Data and Calcs'!B13</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
@@ -1061,12 +1069,12 @@
         <v>0</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <f>'DOE Data and Calcs'!B15</f>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
       <c r="AH2">
         <v>0</v>
       </c>
@@ -1077,6 +1085,9 @@
         <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\RMI\Minnesota\MN_Model\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069008A6-555B-4751-A9E1-389F756FABC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B50DEB-5930-424C-989F-87311BE75FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="14385" windowHeight="8385" activeTab="2" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -615,11 +615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0DBC6-BBF6-4FFA-8935-A589DD9D6AFF}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -846,11 +846,9 @@
   </sheetPr>
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="38" width="9.85546875" customWidth="1"/>

--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B50DEB-5930-424C-989F-87311BE75FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6493CFD-7C39-4D67-A92E-8BFC2549E335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>EVCRSbRIC EV Charger Revenue Share by Recipient ISIC Code</t>
   </si>
@@ -61,9 +61,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -224,6 +212,33 @@
   </si>
   <si>
     <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
   </si>
 </sst>
 </file>
@@ -683,26 +698,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5">
         <v>0.55000000000000004</v>
@@ -717,7 +732,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
         <v>0.3</v>
@@ -732,7 +747,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
         <v>0.05</v>
@@ -747,7 +762,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -762,76 +777,76 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6">
         <f>D3+D$6*D3/SUM(D$3:D$5)</f>
         <v>0.60526315789473684</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:B15" si="1">D4+D$6*D4/SUM(D$3:D$5)</f>
         <v>0.34210526315789469</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -844,17 +859,17 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="38" width="9.85546875" customWidth="1"/>
+    <col min="2" max="43" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -862,118 +877,133 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -1023,18 +1053,18 @@
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <f>'DOE Data and Calcs'!B14</f>
         <v>0.34210526315789469</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -1042,24 +1072,24 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <f>'DOE Data and Calcs'!B13</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1070,22 +1100,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <f>'DOE Data and Calcs'!B15</f>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6493CFD-7C39-4D67-A92E-8BFC2549E335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B50DEB-5930-424C-989F-87311BE75FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>EVCRSbRIC EV Charger Revenue Share by Recipient ISIC Code</t>
   </si>
@@ -61,6 +61,9 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
+    <t>ISIC 05T06</t>
+  </si>
+  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>ISIC 22</t>
   </si>
   <si>
+    <t>ISIC 23</t>
+  </si>
+  <si>
+    <t>ISIC 24</t>
+  </si>
+  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
+    <t>ISIC 35T39</t>
+  </si>
+  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -212,33 +224,6 @@
   </si>
   <si>
     <t>ISIC 21</t>
-  </si>
-  <si>
-    <t>ISIC 05</t>
-  </si>
-  <si>
-    <t>ISIC 06</t>
-  </si>
-  <si>
-    <t>ISIC 231</t>
-  </si>
-  <si>
-    <t>ISIC 239</t>
-  </si>
-  <si>
-    <t>ISIC 241</t>
-  </si>
-  <si>
-    <t>ISIC 242</t>
-  </si>
-  <si>
-    <t>ISIC 351</t>
-  </si>
-  <si>
-    <t>ISIC 352T353</t>
-  </si>
-  <si>
-    <t>ISIC 36T39</t>
   </si>
 </sst>
 </file>
@@ -698,26 +683,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5">
         <v>0.55000000000000004</v>
@@ -732,7 +717,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5">
         <v>0.3</v>
@@ -747,7 +732,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>0.05</v>
@@ -762,7 +747,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5">
         <v>0.05</v>
@@ -777,76 +762,76 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6">
         <f>D3+D$6*D3/SUM(D$3:D$5)</f>
         <v>0.60526315789473684</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:B15" si="1">D4+D$6*D4/SUM(D$3:D$5)</f>
         <v>0.34210526315789469</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>5.2631578947368425E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -859,17 +844,17 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="43" width="9.85546875" customWidth="1"/>
+    <col min="2" max="38" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -877,132 +862,117 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1053,18 +1023,18 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
         <f>'DOE Data and Calcs'!B14</f>
         <v>0.34210526315789469</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -1072,24 +1042,24 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
         <f>'DOE Data and Calcs'!B13</f>
         <v>0.60526315789473684</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1100,37 +1070,22 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
         <f>'DOE Data and Calcs'!B15</f>
         <v>5.2631578947368425E-2</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
     </row>
